--- a/data/candidates/candidates.xlsx
+++ b/data/candidates/candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tneijen/Documents/gitdir/data/candidates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D69254-106A-124C-89DF-B98346B20FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB458D2-A147-6343-9C97-56AFB45C10F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="1360" windowWidth="24480" windowHeight="19240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15720" yWindow="1120" windowWidth="24480" windowHeight="19240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="832">
   <si>
     <t>EMDB ID</t>
   </si>
@@ -2530,6 +2530,30 @@
   </si>
   <si>
     <t>20S supercomplex</t>
+  </si>
+  <si>
+    <t>GDP, GTP, ANP, MG and TA1</t>
+  </si>
+  <si>
+    <t>Waters, ANISOU removed, ions renamed, DNA prepared, generated run.param</t>
+  </si>
+  <si>
+    <t>test run worked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test run started </t>
+  </si>
+  <si>
+    <t>ready to start run</t>
+  </si>
+  <si>
+    <t>test run crashed</t>
+  </si>
+  <si>
+    <t>failed to start</t>
+  </si>
+  <si>
+    <t>ADP removed</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2729,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2909,6 +2933,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -3080,7 +3128,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -3097,6 +3145,12 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8408,10 +8462,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32B13DB-CD94-CE46-B3AD-0DCFA7BFED8B}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8422,9 +8476,10 @@
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>261</v>
       </c>
@@ -8452,9 +8507,12 @@
       <c r="I1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="K1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>669</v>
       </c>
       <c r="B2" t="s">
@@ -8485,8 +8543,8 @@
         <v>731</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>564</v>
       </c>
       <c r="B3" t="s">
@@ -8514,8 +8572,8 @@
         <v>732</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>248</v>
       </c>
       <c r="B4" t="s">
@@ -8546,8 +8604,8 @@
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>654</v>
       </c>
       <c r="B5" t="s">
@@ -8575,8 +8633,8 @@
         <v>733</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>657</v>
       </c>
       <c r="B6" t="s">
@@ -8607,8 +8665,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>237</v>
       </c>
       <c r="B7" t="s">
@@ -8639,15 +8697,15 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>601</v>
       </c>
       <c r="B8" t="s">
         <v>818</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -8671,8 +8729,8 @@
         <v>820</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>620</v>
       </c>
       <c r="B9" t="s">
@@ -8703,8 +8761,8 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>674</v>
       </c>
       <c r="B10" t="s">
@@ -8735,8 +8793,8 @@
         <v>786</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>644</v>
       </c>
       <c r="B11" t="s">
@@ -8764,8 +8822,8 @@
         <v>737</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>612</v>
       </c>
       <c r="B12" t="s">
@@ -8796,8 +8854,8 @@
         <v>787</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>505</v>
       </c>
       <c r="B13" t="s">
@@ -8825,8 +8883,8 @@
         <v>823</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>675</v>
       </c>
       <c r="B14" t="s">
@@ -8856,9 +8914,12 @@
       <c r="J14" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>533</v>
       </c>
       <c r="B15" t="s">
@@ -8874,11 +8935,14 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>135</v>
+        <v>1235</v>
       </c>
       <c r="G15" t="s">
         <v>330</v>
       </c>
+      <c r="H15" t="s">
+        <v>824</v>
+      </c>
       <c r="I15" t="s">
         <v>797</v>
       </c>
@@ -8886,8 +8950,8 @@
         <v>795</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>528</v>
       </c>
       <c r="B16" t="s">
@@ -8916,7 +8980,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="18" t="s">
         <v>598</v>
       </c>
       <c r="B17" t="s">
@@ -8948,7 +9012,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="17" t="s">
         <v>610</v>
       </c>
       <c r="B18" t="s">
@@ -8977,7 +9041,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="18" t="s">
         <v>621</v>
       </c>
       <c r="B19" t="s">
@@ -9009,7 +9073,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="16" t="s">
         <v>629</v>
       </c>
       <c r="B20" t="s">
@@ -9041,7 +9105,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="16" t="s">
         <v>655</v>
       </c>
       <c r="B21" t="s">
@@ -9073,7 +9137,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="21" t="s">
         <v>504</v>
       </c>
       <c r="B22" t="s">
@@ -9102,6 +9166,42 @@
       </c>
       <c r="J22" t="s">
         <v>738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" t="s">
+        <v>830</v>
       </c>
     </row>
   </sheetData>
